--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70849.30037902559</v>
+        <v>84575.65851644374</v>
       </c>
     </row>
     <row r="7">
@@ -26329,7 +26331,7 @@
         <v>74308.35629741133</v>
       </c>
       <c r="H2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="I2" t="n">
         <v>74308.35629741133</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-17501.48917028304</v>
       </c>
       <c r="E6" t="n">
-        <v>-94257.97580939687</v>
+        <v>-94257.97580939693</v>
       </c>
       <c r="F6" t="n">
         <v>38842.02419060313</v>
@@ -26537,7 +26539,7 @@
         <v>38842.02419060313</v>
       </c>
       <c r="H6" t="n">
-        <v>38842.0241906031</v>
+        <v>38842.02419060313</v>
       </c>
       <c r="I6" t="n">
         <v>38842.02419060313</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84575.65851644374</v>
+        <v>-40534.24028103297</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D2" t="n">
         <v>69879.81359544017</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="E6" t="n">
-        <v>-94257.97580939693</v>
+        <v>-109067.9926485108</v>
       </c>
       <c r="F6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="G6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="H6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="I6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="J6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="K6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="L6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="M6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="N6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="O6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
       <c r="P6" t="n">
-        <v>38842.02419060313</v>
+        <v>24032.00735148922</v>
       </c>
     </row>
   </sheetData>
